--- a/biology/Zoologie/Chouette_épervière/Chouette_épervière.xlsx
+++ b/biology/Zoologie/Chouette_épervière/Chouette_épervière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Surnia ulula
 La Chouette épervière (Surnia ulula), pour laquelle un nom normalisé d'« Épervière boréale » a été proposé, est une espèce d'oiseaux de la famille des strigidés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chouette épervière a une large répartition eurasiatique, qui part de la Norvège et s'étend jusqu'au Kamtchatka et à l'île de Sakhaline.
 L'espèce niche en Sibérie et dans les montagnes d'Asie centrale.
-En période hivernale, on assiste  à des mouvements de nomadisme avec des déplacements sur des milliers de kilomètres et des observations dans de nombreux pays au sud de la Baltique. Elle peut ainsi être observée occasionnellement en Belgique, aux Pays-Bas, en Allemagne, en France, en Espagne, au Luxembourg, en Slovénie et en Autriche[1].
+En période hivernale, on assiste  à des mouvements de nomadisme avec des déplacements sur des milliers de kilomètres et des observations dans de nombreux pays au sud de la Baltique. Elle peut ainsi être observée occasionnellement en Belgique, aux Pays-Bas, en Allemagne, en France, en Espagne, au Luxembourg, en Slovénie et en Autriche.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Chouette épervière compte trois sous-espèces dans le monde : 
 La sous-espèce Surnia ulula ulula est présente en Europe.
 La sous-espèce Surnia ulula caparoch (Muller, 1776) est présente dans les régions boréales d'Amérique.
-La sous-espèce Surnia ulula tianschanica (Smallbones, 1906) est présente en Asie orientale[2].</t>
+La sous-espèce Surnia ulula tianschanica (Smallbones, 1906) est présente en Asie orientale.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chouette épervière est une espèce strictement forestière. Elle a l'habitude de fréquenter les zones recouvertes d'une épaisse couche de neige.
 Dans la taïga et les forêts les plus septentrionales de l'hémisphère nord, elle privilégie les boisements les plus ouverts entrecoupés de clairières et de préférence avec des marécages, des tourbières ou autres surfaces partiellement déboisées.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chouette épervière atteint la maturité sexuelle vers l'âge d'un an.
 L'espèce peut être polygame lorsque la disponibilité trophique est plus que suffisante.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A9pervi%C3%A8re</t>
+          <t>Chouette_épervière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Démographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, la population de la Chouette épervière est estimée entre 10 400 et 53 900 couples nicheurs, soit environ 13% de la population mondiale[3]. Actuellement, les estimations mettent en évidence des populations stables, mais la dépendance de la Chouette épervière des fluctuations cycliques des micromammifères pourrait induire dans les prochaines année une tendance au déclin[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, la population de la Chouette épervière est estimée entre 10 400 et 53 900 couples nicheurs, soit environ 13% de la population mondiale. Actuellement, les estimations mettent en évidence des populations stables, mais la dépendance de la Chouette épervière des fluctuations cycliques des micromammifères pourrait induire dans les prochaines année une tendance au déclin.
 </t>
         </is>
       </c>
